--- a/Libraries/Vehicle/Dampers/Damper/sm_car_data_Damper_Decoupled.xlsx
+++ b/Libraries/Vehicle/Dampers/Damper/sm_car_data_Damper_Decoupled.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\ssvt\Libraries\Vehicle\Dampers\Damper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Dampers\Damper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090953FE-8E0E-4007-9366-014DC2972304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DF2C85-9612-49D9-B06B-C6C85E50C215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="1152" windowWidth="16860" windowHeight="11508" tabRatio="961" activeTab="1" xr2:uid="{C5A4D212-38D5-4645-961A-DE2D82DDDABE}"/>
+    <workbookView xWindow="38820" yWindow="2385" windowWidth="21600" windowHeight="12915" tabRatio="961" xr2:uid="{C5A4D212-38D5-4645-961A-DE2D82DDDABE}"/>
   </bookViews>
   <sheets>
     <sheet name="Achilles_f" sheetId="14" r:id="rId1"/>
@@ -254,56 +254,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{06FB5AF8-5B62-439B-8225-37753387631E}"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -704,7 +655,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -717,12 +668,12 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="R10" sqref="R10"/>
       <selection pane="topRight" activeCell="R10" sqref="R10"/>
       <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5:J20"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +843,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -914,7 +865,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1125,7 +1076,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -1158,7 +1109,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -1396,58 +1347,38 @@
       <c r="T27" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:A5 A8:C14 A17:B18">
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+  <conditionalFormatting sqref="A4:A5 A8:B14 A17:B25 B16 C16:C25 C6:C14">
+    <cfRule type="cellIs" dxfId="13" priority="24" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A17 A19:C25">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+  <conditionalFormatting sqref="A15:A17">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:C16 B17">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+  <conditionalFormatting sqref="B17">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B7">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C7">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C7">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1462,12 +1393,12 @@
   </sheetPr>
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="R10" sqref="R10"/>
       <selection pane="topRight" activeCell="R10" sqref="R10"/>
       <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,7 +1568,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1678,7 +1609,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1901,7 +1832,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -1934,7 +1865,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -2151,53 +2082,38 @@
       <c r="T26" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A6:B7">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+  <conditionalFormatting sqref="A19:B25 B16 C16:C25 A6:C14">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A5 A8:C14 A17:B18">
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+  <conditionalFormatting sqref="A4:A5 A17:B18">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C5 C6:C7">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+  <conditionalFormatting sqref="B5:C5">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A17 A19:C25">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+  <conditionalFormatting sqref="A15:A17">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:C16 B17">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C7">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="B17">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Dampers/Damper/sm_car_data_Damper_Decoupled.xlsx
+++ b/Libraries/Vehicle/Dampers/Damper/sm_car_data_Damper_Decoupled.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Dampers\Damper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\veh-tpl\Libraries\Vehicle\Dampers\Damper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DF2C85-9612-49D9-B06B-C6C85E50C215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00C89AE-0377-4F62-AFF3-49B5231FB5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38820" yWindow="2385" windowWidth="21600" windowHeight="12915" tabRatio="961" xr2:uid="{C5A4D212-38D5-4645-961A-DE2D82DDDABE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="961" activeTab="1" xr2:uid="{C5A4D212-38D5-4645-961A-DE2D82DDDABE}"/>
   </bookViews>
   <sheets>
     <sheet name="Achilles_f" sheetId="14" r:id="rId1"/>
@@ -208,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -221,9 +221,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -233,14 +232,13 @@
     <xf numFmtId="11" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -254,42 +252,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{06FB5AF8-5B62-439B-8225-37753387631E}"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -367,9 +330,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -407,7 +370,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -513,7 +476,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -655,7 +618,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -666,19 +629,19 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="R10" sqref="R10"/>
       <selection pane="topRight" activeCell="R10" sqref="R10"/>
       <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
@@ -687,7 +650,7 @@
     <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -707,103 +670,48 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="18" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
@@ -811,251 +719,183 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12">
         <v>5000</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="18">
         <v>0</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="18">
         <v>0.3</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <v>0.45</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="18">
         <v>0</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="18">
         <v>-0.3</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <v>0.45</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="21">
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="19">
         <v>0.1</v>
       </c>
-      <c r="I8"/>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="21">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="19">
         <v>-0.15</v>
       </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-    </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12">
         <v>1000000</v>
       </c>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-    </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12">
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>10</v>
@@ -1063,322 +903,189 @@
       <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13">
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12">
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="E17"/>
-      <c r="F17" s="20">
+      <c r="F17" s="18">
         <v>0.05</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="18">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="18">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I17"/>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-    </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="E18"/>
-      <c r="F18" s="20">
+      <c r="F18" s="18">
         <v>0.05</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="18">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="18">
         <v>0.32500000000000001</v>
       </c>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-    </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="21">
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="19">
         <v>0.1</v>
       </c>
-      <c r="I19"/>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-    </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="21">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="19">
         <v>-0.15</v>
       </c>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-    </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12">
         <v>1000000</v>
       </c>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-    </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13">
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12">
         <v>1000000</v>
       </c>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-    </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13">
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12">
         <v>150</v>
       </c>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-    </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13">
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12">
         <v>150</v>
       </c>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-    </row>
-    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13">
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12">
         <v>1E-4</v>
       </c>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-    </row>
-    <row r="26" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T27" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:A5 A8:B14 A17:B25 B16 C16:C25 C6:C14">
-    <cfRule type="cellIs" dxfId="13" priority="24" operator="equal">
+  <conditionalFormatting sqref="A4:A5 C16:C25">
+    <cfRule type="cellIs" dxfId="8" priority="24" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B25">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:C14">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A17">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B7">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1391,19 +1098,19 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="R10" sqref="R10"/>
       <selection pane="topRight" activeCell="R10" sqref="R10"/>
       <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
@@ -1412,7 +1119,7 @@
     <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1432,103 +1139,48 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="18" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
@@ -1536,272 +1188,189 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12">
         <v>5000</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6"/>
-      <c r="F6" s="20">
+      <c r="F6" s="18">
         <v>0</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="18">
         <v>0.3</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <v>0.45</v>
       </c>
-      <c r="I6"/>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7"/>
-      <c r="F7" s="20">
+      <c r="F7" s="18">
         <v>0</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="18">
         <v>-0.3</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <v>0.45</v>
       </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-    </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="21">
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="19">
         <v>0.1</v>
       </c>
-      <c r="I8"/>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="21">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="19">
         <v>-0.15</v>
       </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-    </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12">
         <v>1000000</v>
       </c>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12">
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>10</v>
@@ -1809,311 +1378,184 @@
       <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13">
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12">
         <v>5000</v>
       </c>
-      <c r="I16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-    </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="E17"/>
-      <c r="F17" s="20">
+      <c r="F17" s="18">
         <v>0.05</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="18">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="18">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I17"/>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-    </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="E18"/>
-      <c r="F18" s="20">
+      <c r="F18" s="18">
         <v>0.05</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="18">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="18">
         <v>0.32500000000000001</v>
       </c>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-    </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="21">
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="19">
         <v>0.1</v>
       </c>
-      <c r="I19"/>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-    </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="21">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="19">
         <v>-0.15</v>
       </c>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-    </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12">
         <v>1000000</v>
       </c>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-    </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13">
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12">
         <v>1000000</v>
       </c>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-    </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13">
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12">
         <v>150</v>
       </c>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-    </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13">
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12">
         <v>150</v>
       </c>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-    </row>
-    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13">
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12">
         <v>1E-4</v>
       </c>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T26" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A19:B25 B16 C16:C25 A6:C14">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+  <conditionalFormatting sqref="A4:A5">
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A5 A17:B18">
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
+  <conditionalFormatting sqref="A6:C14 A15:B25 C16:C25">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A17">
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Dampers/Damper/sm_car_data_Damper_Decoupled.xlsx
+++ b/Libraries/Vehicle/Dampers/Damper/sm_car_data_Damper_Decoupled.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\veh-tpl\Libraries\Vehicle\Dampers\Damper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Dampers\Damper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00C89AE-0377-4F62-AFF3-49B5231FB5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0961A0C5-20E7-42C7-99FD-6C0766CE2120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="961" activeTab="1" xr2:uid="{C5A4D212-38D5-4645-961A-DE2D82DDDABE}"/>
+    <workbookView xWindow="2760" yWindow="720" windowWidth="25575" windowHeight="13875" tabRatio="961" activeTab="1" xr2:uid="{C5A4D212-38D5-4645-961A-DE2D82DDDABE}"/>
   </bookViews>
   <sheets>
     <sheet name="Achilles_f" sheetId="14" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="30">
   <si>
     <t>Units</t>
   </si>
@@ -82,9 +82,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>Also in Linkage</t>
-  </si>
-  <si>
     <t>sBottom</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>FSAE_Achilles_DWDec_Linear_A2</t>
+  </si>
+  <si>
+    <t>Must be consistent with values in Linkage</t>
   </si>
 </sst>
 </file>
@@ -633,10 +633,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="R10" sqref="R10"/>
-      <selection pane="topRight" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection activeCell="E17" sqref="E17:E20"/>
+      <selection pane="topRight" activeCell="E17" sqref="E17:E20"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17:E20"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +647,9 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -692,12 +694,12 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>8</v>
@@ -737,6 +739,9 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
       <c r="F6" s="18">
         <v>0</v>
       </c>
@@ -747,17 +752,20 @@
         <v>0.45</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
       </c>
       <c r="F7" s="18">
         <v>0</v>
@@ -767,18 +775,24 @@
       </c>
       <c r="H7" s="18">
         <v>0.45</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" t="s">
         <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -786,32 +800,38 @@
         <v>0.1</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="19">
         <v>-0.15</v>
       </c>
+      <c r="J9" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -823,10 +843,10 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -838,10 +858,10 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -853,10 +873,10 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -868,7 +888,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -881,7 +901,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>8</v>
@@ -921,6 +941,9 @@
       <c r="D17" t="s">
         <v>14</v>
       </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
       <c r="F17" s="18">
         <v>0.05</v>
       </c>
@@ -931,17 +954,20 @@
         <v>0.47499999999999998</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
       </c>
       <c r="F18" s="18">
         <v>0.05</v>
@@ -951,18 +977,24 @@
       </c>
       <c r="H18" s="18">
         <v>0.32500000000000001</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>18</v>
-      </c>
       <c r="D19" t="s">
         <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -970,32 +1002,38 @@
         <v>0.1</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="19">
         <v>-0.15</v>
       </c>
+      <c r="J20" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
         <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -1007,10 +1045,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -1022,10 +1060,10 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -1037,10 +1075,10 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -1052,7 +1090,7 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
@@ -1105,7 +1143,7 @@
       <selection activeCell="R10" sqref="R10"/>
       <selection pane="topRight" activeCell="R10" sqref="R10"/>
       <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,7 +1154,9 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1161,12 +1201,12 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>8</v>
@@ -1209,6 +1249,9 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
       <c r="F6" s="18">
         <v>0</v>
       </c>
@@ -1219,7 +1262,7 @@
         <v>0.45</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -1229,10 +1272,13 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
       </c>
       <c r="F7" s="18">
         <v>0</v>
@@ -1242,18 +1288,24 @@
       </c>
       <c r="H7" s="18">
         <v>0.45</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" t="s">
         <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -1261,32 +1313,38 @@
         <v>0.1</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="19">
         <v>-0.15</v>
       </c>
+      <c r="J9" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -1298,10 +1356,10 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -1313,10 +1371,10 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -1328,10 +1386,10 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -1343,7 +1401,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1356,7 +1414,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>8</v>
@@ -1396,6 +1454,9 @@
       <c r="D17" t="s">
         <v>14</v>
       </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
       <c r="F17" s="18">
         <v>0.05</v>
       </c>
@@ -1406,17 +1467,20 @@
         <v>0.47499999999999998</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
       </c>
       <c r="F18" s="18">
         <v>0.05</v>
@@ -1426,18 +1490,24 @@
       </c>
       <c r="H18" s="18">
         <v>0.32500000000000001</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>18</v>
-      </c>
       <c r="D19" t="s">
         <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -1445,32 +1515,38 @@
         <v>0.1</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="19">
         <v>-0.15</v>
       </c>
+      <c r="J20" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
         <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -1482,10 +1558,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -1497,10 +1573,10 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -1512,10 +1588,10 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -1527,7 +1603,7 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
